--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c202_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/c202_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4312" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -361,10 +373,10 @@
       <c r="I8">
         <f>((C8-C7)^2+(D8- D7)^2)^.5</f>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K8" s="2" t="s">
+      <c r="J8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L8" t="n">
@@ -408,28 +420,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="2">
+      <c r="A10" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C10" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D10" t="s" s="2">
+      <c r="C10" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E10" t="s" s="2">
+      <c r="E10" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F10" t="s" s="2">
+      <c r="F10" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G10" t="s" s="2">
+      <c r="G10" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H10" t="s" s="2">
+      <c r="H10" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -454,28 +466,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I12" t="s" s="2">
+      <c r="I12" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -621,10 +633,10 @@
       <c r="I17">
         <f>((C17-C16)^2+(D17- D16)^2)^.5</f>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K17" s="2" t="s">
+      <c r="J17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L17" t="n">
@@ -668,28 +680,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s" s="2">
+      <c r="A19" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C19" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D19" t="s" s="2">
+      <c r="C19" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D19" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -714,28 +726,28 @@
       </c>
     </row>
     <row r="21">
-      <c r="B21" t="s" s="2">
+      <c r="B21" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C21" t="s" s="2">
+      <c r="C21" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D21" t="s" s="2">
+      <c r="D21" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E21" t="s" s="2">
+      <c r="E21" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F21" t="s" s="2">
+      <c r="F21" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G21" t="s" s="2">
+      <c r="G21" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H21" t="s" s="2">
+      <c r="H21" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I21" t="s" s="2">
+      <c r="I21" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -910,10 +922,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -957,28 +969,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1003,28 +1015,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1112,10 +1124,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K34" s="2" t="s">
+      <c r="J34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1159,28 +1171,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D36" t="s" s="2">
+      <c r="C36" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1205,28 +1217,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1314,10 +1326,10 @@
       <c r="I41">
         <f>((C41-C40)^2+(D41- D40)^2)^.5</f>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K41" s="2" t="s">
+      <c r="J41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K41" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L41" t="n">
@@ -1361,28 +1373,28 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s" s="2">
+      <c r="A43" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C43" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D43" t="s" s="2">
+      <c r="C43" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D43" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E43" t="s" s="2">
+      <c r="E43" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F43" t="s" s="2">
+      <c r="F43" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G43" t="s" s="2">
+      <c r="G43" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H43" t="s" s="2">
+      <c r="H43" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1407,28 +1419,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I45" t="s" s="2">
+      <c r="I45" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1574,10 +1586,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K50" s="2" t="s">
+      <c r="J50" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1621,28 +1633,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D52" t="s" s="2">
+      <c r="C52" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1667,28 +1679,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1950,10 +1962,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K63" s="2" t="s">
+      <c r="J63" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1997,28 +2009,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s" s="2">
+      <c r="C65" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2043,28 +2055,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2210,10 +2222,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K72" s="2" t="s">
+      <c r="J72" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2257,28 +2269,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D74" t="s" s="2">
+      <c r="C74" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2303,28 +2315,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2412,10 +2424,10 @@
       <c r="I79">
         <f>((C79-C78)^2+(D79- D78)^2)^.5</f>
       </c>
-      <c r="J79" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K79" s="2" t="s">
+      <c r="J79" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K79" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L79" t="n">
@@ -2459,28 +2471,28 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="s" s="2">
+      <c r="A81" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C81" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D81" t="s" s="2">
+      <c r="C81" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D81" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E81" t="s" s="2">
+      <c r="E81" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F81" t="s" s="2">
+      <c r="F81" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G81" t="s" s="2">
+      <c r="G81" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H81" t="s" s="2">
+      <c r="H81" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2505,28 +2517,28 @@
       </c>
     </row>
     <row r="83">
-      <c r="B83" t="s" s="2">
+      <c r="B83" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C83" t="s" s="2">
+      <c r="C83" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D83" t="s" s="2">
+      <c r="D83" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E83" t="s" s="2">
+      <c r="E83" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F83" t="s" s="2">
+      <c r="F83" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G83" t="s" s="2">
+      <c r="G83" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H83" t="s" s="2">
+      <c r="H83" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I83" t="s" s="2">
+      <c r="I83" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2614,10 +2626,10 @@
       <c r="I86">
         <f>((C86-C85)^2+(D86- D85)^2)^.5</f>
       </c>
-      <c r="J86" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K86" s="2" t="s">
+      <c r="J86" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L86" t="n">
@@ -2661,28 +2673,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="s" s="2">
+      <c r="A88" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D88" t="s" s="2">
+      <c r="C88" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2707,28 +2719,28 @@
       </c>
     </row>
     <row r="90">
-      <c r="B90" t="s" s="2">
+      <c r="B90" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C90" t="s" s="2">
+      <c r="C90" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D90" t="s" s="2">
+      <c r="D90" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E90" t="s" s="2">
+      <c r="E90" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F90" t="s" s="2">
+      <c r="F90" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G90" t="s" s="2">
+      <c r="G90" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H90" t="s" s="2">
+      <c r="H90" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I90" t="s" s="2">
+      <c r="I90" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2816,10 +2828,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2863,28 +2875,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2909,28 +2921,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3076,10 +3088,10 @@
       <c r="I102">
         <f>((C102-C101)^2+(D102- D101)^2)^.5</f>
       </c>
-      <c r="J102" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K102" s="2" t="s">
+      <c r="J102" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K102" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L102" t="n">
@@ -3123,28 +3135,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="s" s="2">
+      <c r="A104" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C104" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D104" t="s" s="2">
+      <c r="C104" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D104" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3169,28 +3181,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I106" t="s" s="2">
+      <c r="I106" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3278,10 +3290,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K109" s="2" t="s">
+      <c r="J109" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K109" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3325,28 +3337,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="2">
+      <c r="A111" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="2">
+      <c r="B111" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D111" t="s" s="2">
+      <c r="C111" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D111" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="2">
+      <c r="E111" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="2">
+      <c r="F111" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="2">
+      <c r="G111" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="2">
+      <c r="H111" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3371,28 +3383,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="2">
+      <c r="C113" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="2">
+      <c r="D113" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="2">
+      <c r="I113" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3509,10 +3521,10 @@
       <c r="I117">
         <f>((C117-C116)^2+(D117- D116)^2)^.5</f>
       </c>
-      <c r="J117" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K117" s="2" t="s">
+      <c r="J117" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K117" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L117" t="n">
@@ -3556,28 +3568,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="s" s="2">
+      <c r="A119" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C119" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D119" t="s" s="2">
+      <c r="C119" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D119" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3602,28 +3614,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I121" t="s" s="2">
+      <c r="I121" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3740,10 +3752,10 @@
       <c r="I125">
         <f>((C125-C124)^2+(D125- D124)^2)^.5</f>
       </c>
-      <c r="J125" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K125" s="2" t="s">
+      <c r="J125" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K125" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L125" t="n">
@@ -3787,28 +3799,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="s" s="2">
+      <c r="A127" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C127" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D127" t="s" s="2">
+      <c r="C127" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D127" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3833,28 +3845,28 @@
       </c>
     </row>
     <row r="129">
-      <c r="B129" t="s" s="2">
+      <c r="B129" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C129" t="s" s="2">
+      <c r="C129" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D129" t="s" s="2">
+      <c r="D129" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E129" t="s" s="2">
+      <c r="E129" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F129" t="s" s="2">
+      <c r="F129" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G129" t="s" s="2">
+      <c r="G129" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H129" t="s" s="2">
+      <c r="H129" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I129" t="s" s="2">
+      <c r="I129" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3913,10 +3925,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3960,28 +3972,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4006,28 +4018,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4086,10 +4098,10 @@
       <c r="I137">
         <f>((C137-C136)^2+(D137- D136)^2)^.5</f>
       </c>
-      <c r="J137" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K137" s="2" t="s">
+      <c r="J137" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K137" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L137" t="n">
@@ -4133,28 +4145,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="s" s="2">
+      <c r="A139" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C139" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D139" t="s" s="2">
+      <c r="C139" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D139" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4179,28 +4191,28 @@
       </c>
     </row>
     <row r="141">
-      <c r="B141" t="s" s="2">
+      <c r="B141" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C141" t="s" s="2">
+      <c r="C141" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D141" t="s" s="2">
+      <c r="D141" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E141" t="s" s="2">
+      <c r="E141" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F141" t="s" s="2">
+      <c r="F141" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G141" t="s" s="2">
+      <c r="G141" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H141" t="s" s="2">
+      <c r="H141" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I141" t="s" s="2">
+      <c r="I141" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4317,10 +4329,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4364,28 +4376,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4410,28 +4422,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4490,10 +4502,10 @@
       <c r="I151">
         <f>((C151-C150)^2+(D151- D150)^2)^.5</f>
       </c>
-      <c r="J151" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K151" s="2" t="s">
+      <c r="J151" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K151" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L151" t="n">
@@ -4537,28 +4549,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="s" s="2">
+      <c r="A153" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C153" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D153" t="s" s="2">
+      <c r="C153" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D153" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4583,28 +4595,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="B155" t="s" s="2">
+      <c r="B155" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C155" t="s" s="2">
+      <c r="C155" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D155" t="s" s="2">
+      <c r="D155" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E155" t="s" s="2">
+      <c r="E155" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F155" t="s" s="2">
+      <c r="F155" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G155" t="s" s="2">
+      <c r="G155" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H155" t="s" s="2">
+      <c r="H155" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I155" t="s" s="2">
+      <c r="I155" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4663,10 +4675,10 @@
       <c r="I157">
         <f>((C157-C156)^2+(D157- D156)^2)^.5</f>
       </c>
-      <c r="J157" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K157" s="2" t="s">
+      <c r="J157" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K157" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L157" t="n">
@@ -4710,28 +4722,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="s" s="2">
+      <c r="A159" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C159" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D159" t="s" s="2">
+      <c r="C159" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D159" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4756,28 +4768,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="B161" t="s" s="2">
+      <c r="B161" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C161" t="s" s="2">
+      <c r="C161" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D161" t="s" s="2">
+      <c r="D161" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E161" t="s" s="2">
+      <c r="E161" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F161" t="s" s="2">
+      <c r="F161" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G161" t="s" s="2">
+      <c r="G161" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H161" t="s" s="2">
+      <c r="H161" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I161" t="s" s="2">
+      <c r="I161" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4836,10 +4848,10 @@
       <c r="I163">
         <f>((C163-C162)^2+(D163- D162)^2)^.5</f>
       </c>
-      <c r="J163" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K163" s="2" t="s">
+      <c r="J163" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K163" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L163" t="n">
@@ -4883,28 +4895,28 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="s" s="2">
+      <c r="A165" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B165" t="s" s="2">
+      <c r="B165" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C165" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D165" t="s" s="2">
+      <c r="C165" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D165" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E165" t="s" s="2">
+      <c r="E165" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F165" t="s" s="2">
+      <c r="F165" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G165" t="s" s="2">
+      <c r="G165" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H165" t="s" s="2">
+      <c r="H165" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4929,28 +4941,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I167" t="s" s="2">
+      <c r="I167" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5009,10 +5021,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5056,28 +5068,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5102,28 +5114,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5182,10 +5194,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K175" s="2" t="s">
+      <c r="J175" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5229,28 +5241,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D177" t="s" s="2">
+      <c r="C177" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5275,28 +5287,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5355,10 +5367,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K181" s="2" t="s">
+      <c r="J181" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5402,28 +5414,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D183" t="s" s="2">
+      <c r="C183" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5448,28 +5460,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5528,10 +5540,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5575,28 +5587,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5621,28 +5633,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5701,10 +5713,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5748,28 +5760,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5794,28 +5806,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5961,10 +5973,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6008,28 +6020,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6054,28 +6066,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6134,10 +6146,10 @@
       <c r="I208">
         <f>((C208-C207)^2+(D208- D207)^2)^.5</f>
       </c>
-      <c r="J208" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K208" s="2" t="s">
+      <c r="J208" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K208" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L208" t="n">
@@ -6181,28 +6193,28 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="s" s="2">
+      <c r="A210" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B210" t="s" s="2">
+      <c r="B210" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C210" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D210" t="s" s="2">
+      <c r="C210" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D210" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E210" t="s" s="2">
+      <c r="E210" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F210" t="s" s="2">
+      <c r="F210" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G210" t="s" s="2">
+      <c r="G210" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H210" t="s" s="2">
+      <c r="H210" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6227,28 +6239,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="B212" t="s" s="2">
+      <c r="B212" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C212" t="s" s="2">
+      <c r="C212" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D212" t="s" s="2">
+      <c r="D212" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E212" t="s" s="2">
+      <c r="E212" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F212" t="s" s="2">
+      <c r="F212" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G212" t="s" s="2">
+      <c r="G212" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H212" t="s" s="2">
+      <c r="H212" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I212" t="s" s="2">
+      <c r="I212" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6307,10 +6319,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6354,28 +6366,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6400,28 +6412,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6480,10 +6492,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6527,28 +6539,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6573,28 +6585,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6653,10 +6665,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6700,28 +6712,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6746,28 +6758,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6826,10 +6838,10 @@
       <c r="I232">
         <f>((C232-C231)^2+(D232- D231)^2)^.5</f>
       </c>
-      <c r="J232" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K232" s="2" t="s">
+      <c r="J232" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K232" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L232" t="n">
@@ -6873,28 +6885,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="s" s="2">
+      <c r="A234" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C234" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D234" t="s" s="2">
+      <c r="C234" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D234" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6919,28 +6931,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C236" t="s" s="2">
+      <c r="C236" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D236" t="s" s="2">
+      <c r="D236" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I236" t="s" s="2">
+      <c r="I236" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6999,10 +7011,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="2" t="s">
+      <c r="J238" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7046,28 +7058,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="2">
+      <c r="A240" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="2">
+      <c r="B240" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="2">
+      <c r="C240" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="2">
+      <c r="E240" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="2">
+      <c r="F240" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="2">
+      <c r="G240" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="2">
+      <c r="H240" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7092,28 +7104,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="2">
+      <c r="B242" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="2">
+      <c r="C242" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="2">
+      <c r="D242" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="2">
+      <c r="E242" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="2">
+      <c r="F242" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="2">
+      <c r="G242" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="2">
+      <c r="H242" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="2">
+      <c r="I242" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7172,10 +7184,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7219,28 +7231,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7265,28 +7277,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7345,10 +7357,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7392,28 +7404,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7438,28 +7450,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7518,10 +7530,10 @@
       <c r="I256">
         <f>((C256-C255)^2+(D256- D255)^2)^.5</f>
       </c>
-      <c r="J256" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K256" s="2" t="s">
+      <c r="J256" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K256" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L256" t="n">
@@ -7565,28 +7577,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="s" s="2">
+      <c r="A258" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C258" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D258" t="s" s="2">
+      <c r="C258" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D258" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7611,28 +7623,28 @@
       </c>
     </row>
     <row r="260">
-      <c r="B260" t="s" s="2">
+      <c r="B260" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C260" t="s" s="2">
+      <c r="C260" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D260" t="s" s="2">
+      <c r="D260" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E260" t="s" s="2">
+      <c r="E260" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F260" t="s" s="2">
+      <c r="F260" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G260" t="s" s="2">
+      <c r="G260" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H260" t="s" s="2">
+      <c r="H260" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I260" t="s" s="2">
+      <c r="I260" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7720,10 +7732,10 @@
       <c r="I263">
         <f>((C263-C262)^2+(D263- D262)^2)^.5</f>
       </c>
-      <c r="J263" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K263" s="2" t="s">
+      <c r="J263" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K263" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L263" t="n">
@@ -7767,28 +7779,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" t="s" s="2">
+      <c r="A265" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B265" t="s" s="2">
+      <c r="B265" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C265" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D265" t="s" s="2">
+      <c r="C265" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D265" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E265" t="s" s="2">
+      <c r="E265" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F265" t="s" s="2">
+      <c r="F265" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G265" t="s" s="2">
+      <c r="G265" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H265" t="s" s="2">
+      <c r="H265" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7813,28 +7825,28 @@
       </c>
     </row>
     <row r="267">
-      <c r="B267" t="s" s="2">
+      <c r="B267" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C267" t="s" s="2">
+      <c r="C267" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D267" t="s" s="2">
+      <c r="D267" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E267" t="s" s="2">
+      <c r="E267" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F267" t="s" s="2">
+      <c r="F267" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G267" t="s" s="2">
+      <c r="G267" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H267" t="s" s="2">
+      <c r="H267" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I267" t="s" s="2">
+      <c r="I267" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7893,10 +7905,10 @@
       <c r="I269">
         <f>((C269-C268)^2+(D269- D268)^2)^.5</f>
       </c>
-      <c r="J269" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K269" s="2" t="s">
+      <c r="J269" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K269" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L269" t="n">
@@ -7940,28 +7952,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" t="s" s="2">
+      <c r="A271" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C271" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D271" t="s" s="2">
+      <c r="C271" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D271" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7986,28 +7998,28 @@
       </c>
     </row>
     <row r="273">
-      <c r="B273" t="s" s="2">
+      <c r="B273" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C273" t="s" s="2">
+      <c r="C273" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D273" t="s" s="2">
+      <c r="D273" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E273" t="s" s="2">
+      <c r="E273" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F273" t="s" s="2">
+      <c r="F273" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G273" t="s" s="2">
+      <c r="G273" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H273" t="s" s="2">
+      <c r="H273" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I273" t="s" s="2">
+      <c r="I273" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8066,10 +8078,10 @@
       <c r="I275">
         <f>((C275-C274)^2+(D275- D274)^2)^.5</f>
       </c>
-      <c r="J275" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K275" s="2" t="s">
+      <c r="J275" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K275" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L275" t="n">
@@ -8113,28 +8125,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="s" s="2">
+      <c r="A277" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C277" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D277" t="s" s="2">
+      <c r="C277" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D277" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8159,28 +8171,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C279" t="s" s="2">
+      <c r="C279" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D279" t="s" s="2">
+      <c r="D279" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I279" t="s" s="2">
+      <c r="I279" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8239,10 +8251,10 @@
       <c r="I281">
         <f>((C281-C280)^2+(D281- D280)^2)^.5</f>
       </c>
-      <c r="J281" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K281" s="2" t="s">
+      <c r="J281" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K281" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L281" t="n">
@@ -8286,28 +8298,28 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" t="s" s="2">
+      <c r="A283" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B283" t="s" s="2">
+      <c r="B283" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C283" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D283" t="s" s="2">
+      <c r="C283" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D283" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E283" t="s" s="2">
+      <c r="E283" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F283" t="s" s="2">
+      <c r="F283" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G283" t="s" s="2">
+      <c r="G283" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H283" t="s" s="2">
+      <c r="H283" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8332,28 +8344,28 @@
       </c>
     </row>
     <row r="285">
-      <c r="B285" t="s" s="2">
+      <c r="B285" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C285" t="s" s="2">
+      <c r="C285" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D285" t="s" s="2">
+      <c r="D285" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E285" t="s" s="2">
+      <c r="E285" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F285" t="s" s="2">
+      <c r="F285" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G285" t="s" s="2">
+      <c r="G285" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H285" t="s" s="2">
+      <c r="H285" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I285" t="s" s="2">
+      <c r="I285" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8412,10 +8424,10 @@
       <c r="I287">
         <f>((C287-C286)^2+(D287- D286)^2)^.5</f>
       </c>
-      <c r="J287" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K287" s="2" t="s">
+      <c r="J287" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K287" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L287" t="n">
@@ -8459,28 +8471,28 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" t="s" s="2">
+      <c r="A289" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B289" t="s" s="2">
+      <c r="B289" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C289" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D289" t="s" s="2">
+      <c r="C289" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D289" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E289" t="s" s="2">
+      <c r="E289" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F289" t="s" s="2">
+      <c r="F289" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G289" t="s" s="2">
+      <c r="G289" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H289" t="s" s="2">
+      <c r="H289" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8505,28 +8517,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C291" t="s" s="2">
+      <c r="C291" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D291" t="s" s="2">
+      <c r="D291" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I291" t="s" s="2">
+      <c r="I291" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8585,10 +8597,10 @@
       <c r="I293">
         <f>((C293-C292)^2+(D293- D292)^2)^.5</f>
       </c>
-      <c r="J293" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K293" s="2" t="s">
+      <c r="J293" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K293" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L293" t="n">
@@ -8632,28 +8644,28 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" t="s" s="2">
+      <c r="A295" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B295" t="s" s="2">
+      <c r="B295" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C295" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D295" t="s" s="2">
+      <c r="C295" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D295" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E295" t="s" s="2">
+      <c r="E295" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F295" t="s" s="2">
+      <c r="F295" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G295" t="s" s="2">
+      <c r="G295" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H295" t="s" s="2">
+      <c r="H295" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8678,28 +8690,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C297" t="s" s="2">
+      <c r="C297" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D297" t="s" s="2">
+      <c r="D297" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I297" t="s" s="2">
+      <c r="I297" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8787,10 +8799,10 @@
       <c r="I300">
         <f>((C300-C299)^2+(D300- D299)^2)^.5</f>
       </c>
-      <c r="J300" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K300" s="2" t="s">
+      <c r="J300" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K300" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L300" t="n">
@@ -8834,28 +8846,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" t="s" s="2">
+      <c r="A302" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C302" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D302" t="s" s="2">
+      <c r="C302" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D302" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8880,28 +8892,28 @@
       </c>
     </row>
     <row r="304">
-      <c r="B304" t="s" s="2">
+      <c r="B304" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C304" t="s" s="2">
+      <c r="C304" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D304" t="s" s="2">
+      <c r="D304" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E304" t="s" s="2">
+      <c r="E304" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F304" t="s" s="2">
+      <c r="F304" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G304" t="s" s="2">
+      <c r="G304" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H304" t="s" s="2">
+      <c r="H304" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I304" t="s" s="2">
+      <c r="I304" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8989,10 +9001,10 @@
       <c r="I307">
         <f>((C307-C306)^2+(D307- D306)^2)^.5</f>
       </c>
-      <c r="J307" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K307" s="2" t="s">
+      <c r="J307" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K307" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L307" t="n">
@@ -9036,28 +9048,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s" s="2">
+      <c r="A309" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B309" t="s" s="2">
+      <c r="B309" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C309" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D309" t="s" s="2">
+      <c r="C309" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E309" t="s" s="2">
+      <c r="E309" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F309" t="s" s="2">
+      <c r="F309" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G309" t="s" s="2">
+      <c r="G309" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H309" t="s" s="2">
+      <c r="H309" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9082,28 +9094,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="2">
+      <c r="B311" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C311" t="s" s="2">
+      <c r="C311" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D311" t="s" s="2">
+      <c r="D311" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E311" t="s" s="2">
+      <c r="E311" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F311" t="s" s="2">
+      <c r="F311" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G311" t="s" s="2">
+      <c r="G311" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H311" t="s" s="2">
+      <c r="H311" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I311" t="s" s="2">
+      <c r="I311" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9191,10 +9203,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="2" t="s">
+      <c r="J314" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9238,28 +9250,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="2">
+      <c r="A316" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="2">
+      <c r="B316" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="2">
+      <c r="C316" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="2">
+      <c r="E316" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="2">
+      <c r="F316" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="2">
+      <c r="G316" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="2">
+      <c r="H316" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9284,28 +9296,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="2">
+      <c r="C318" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="2">
+      <c r="D318" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="2">
+      <c r="I318" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9393,10 +9405,10 @@
       <c r="I321">
         <f>((C321-C320)^2+(D321- D320)^2)^.5</f>
       </c>
-      <c r="J321" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K321" s="2" t="s">
+      <c r="J321" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K321" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L321" t="n">
@@ -9440,28 +9452,28 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="s" s="2">
+      <c r="A323" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B323" t="s" s="2">
+      <c r="B323" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C323" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D323" t="s" s="2">
+      <c r="C323" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D323" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E323" t="s" s="2">
+      <c r="E323" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F323" t="s" s="2">
+      <c r="F323" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G323" t="s" s="2">
+      <c r="G323" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H323" t="s" s="2">
+      <c r="H323" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9486,28 +9498,28 @@
       </c>
     </row>
     <row r="325">
-      <c r="B325" t="s" s="2">
+      <c r="B325" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C325" t="s" s="2">
+      <c r="C325" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D325" t="s" s="2">
+      <c r="D325" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E325" t="s" s="2">
+      <c r="E325" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F325" t="s" s="2">
+      <c r="F325" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G325" t="s" s="2">
+      <c r="G325" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H325" t="s" s="2">
+      <c r="H325" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I325" t="s" s="2">
+      <c r="I325" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9566,10 +9578,10 @@
       <c r="I327">
         <f>((C327-C326)^2+(D327- D326)^2)^.5</f>
       </c>
-      <c r="J327" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K327" s="2" t="s">
+      <c r="J327" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K327" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L327" t="n">
@@ -9613,28 +9625,28 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" t="s" s="2">
+      <c r="A329" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B329" t="s" s="2">
+      <c r="B329" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C329" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D329" t="s" s="2">
+      <c r="C329" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D329" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E329" t="s" s="2">
+      <c r="E329" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F329" t="s" s="2">
+      <c r="F329" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G329" t="s" s="2">
+      <c r="G329" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H329" t="s" s="2">
+      <c r="H329" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9659,28 +9671,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C331" t="s" s="2">
+      <c r="C331" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D331" t="s" s="2">
+      <c r="D331" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I331" t="s" s="2">
+      <c r="I331" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9797,10 +9809,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="2" t="s">
+      <c r="J335" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9844,28 +9856,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="2">
+      <c r="A337" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="2">
+      <c r="C337" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9890,28 +9902,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="2">
+      <c r="C339" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="2">
+      <c r="D339" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="2">
+      <c r="I339" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9999,10 +10011,10 @@
       <c r="I342">
         <f>((C342-C341)^2+(D342- D341)^2)^.5</f>
       </c>
-      <c r="J342" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K342" s="2" t="s">
+      <c r="J342" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K342" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L342" t="n">
@@ -10046,28 +10058,28 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="s" s="2">
+      <c r="A344" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B344" t="s" s="2">
+      <c r="B344" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C344" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D344" t="s" s="2">
+      <c r="C344" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D344" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E344" t="s" s="2">
+      <c r="E344" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F344" t="s" s="2">
+      <c r="F344" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G344" t="s" s="2">
+      <c r="G344" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H344" t="s" s="2">
+      <c r="H344" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10092,28 +10104,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="B346" t="s" s="2">
+      <c r="B346" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C346" t="s" s="2">
+      <c r="C346" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D346" t="s" s="2">
+      <c r="D346" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E346" t="s" s="2">
+      <c r="E346" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F346" t="s" s="2">
+      <c r="F346" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G346" t="s" s="2">
+      <c r="G346" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H346" t="s" s="2">
+      <c r="H346" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I346" t="s" s="2">
+      <c r="I346" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10172,10 +10184,10 @@
       <c r="I348">
         <f>((C348-C347)^2+(D348- D347)^2)^.5</f>
       </c>
-      <c r="J348" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K348" s="2" t="s">
+      <c r="J348" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K348" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L348" t="n">
@@ -10219,28 +10231,28 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="s" s="2">
+      <c r="A350" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B350" t="s" s="2">
+      <c r="B350" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C350" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D350" t="s" s="2">
+      <c r="C350" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D350" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E350" t="s" s="2">
+      <c r="E350" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F350" t="s" s="2">
+      <c r="F350" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G350" t="s" s="2">
+      <c r="G350" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H350" t="s" s="2">
+      <c r="H350" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10265,28 +10277,28 @@
       </c>
     </row>
     <row r="352">
-      <c r="B352" t="s" s="2">
+      <c r="B352" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C352" t="s" s="2">
+      <c r="C352" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D352" t="s" s="2">
+      <c r="D352" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E352" t="s" s="2">
+      <c r="E352" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F352" t="s" s="2">
+      <c r="F352" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G352" t="s" s="2">
+      <c r="G352" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H352" t="s" s="2">
+      <c r="H352" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I352" t="s" s="2">
+      <c r="I352" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10345,10 +10357,10 @@
       <c r="I354">
         <f>((C354-C353)^2+(D354- D353)^2)^.5</f>
       </c>
-      <c r="J354" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K354" s="2" t="s">
+      <c r="J354" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K354" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L354" t="n">
@@ -10392,28 +10404,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="s" s="2">
+      <c r="A356" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B356" t="s" s="2">
+      <c r="B356" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C356" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D356" t="s" s="2">
+      <c r="C356" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D356" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E356" t="s" s="2">
+      <c r="E356" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F356" t="s" s="2">
+      <c r="F356" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G356" t="s" s="2">
+      <c r="G356" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H356" t="s" s="2">
+      <c r="H356" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10438,28 +10450,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="B358" t="s" s="2">
+      <c r="B358" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C358" t="s" s="2">
+      <c r="C358" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D358" t="s" s="2">
+      <c r="D358" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E358" t="s" s="2">
+      <c r="E358" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F358" t="s" s="2">
+      <c r="F358" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G358" t="s" s="2">
+      <c r="G358" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H358" t="s" s="2">
+      <c r="H358" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I358" t="s" s="2">
+      <c r="I358" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10518,10 +10530,10 @@
       <c r="I360">
         <f>((C360-C359)^2+(D360- D359)^2)^.5</f>
       </c>
-      <c r="J360" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K360" s="2" t="s">
+      <c r="J360" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K360" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L360" t="n">
@@ -10565,28 +10577,28 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="s" s="2">
+      <c r="A362" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B362" t="s" s="2">
+      <c r="B362" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C362" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D362" t="s" s="2">
+      <c r="C362" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D362" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E362" t="s" s="2">
+      <c r="E362" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F362" t="s" s="2">
+      <c r="F362" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G362" t="s" s="2">
+      <c r="G362" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H362" t="s" s="2">
+      <c r="H362" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10611,28 +10623,28 @@
       </c>
     </row>
     <row r="364">
-      <c r="B364" t="s" s="2">
+      <c r="B364" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C364" t="s" s="2">
+      <c r="C364" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D364" t="s" s="2">
+      <c r="D364" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E364" t="s" s="2">
+      <c r="E364" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F364" t="s" s="2">
+      <c r="F364" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G364" t="s" s="2">
+      <c r="G364" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H364" t="s" s="2">
+      <c r="H364" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I364" t="s" s="2">
+      <c r="I364" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10691,10 +10703,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="2" t="s">
+      <c r="J366" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
